--- a/blog_config.xlsx
+++ b/blog_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanstruk/Documents/GitHub/good-news/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B1AE8-A2D2-5949-8DAB-9C0F4308F521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0971CC-5304-B742-8902-96FCDACFA1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43040" yWindow="2580" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
+    <workbookView xWindow="43040" yWindow="2580" windowWidth="28040" windowHeight="17440" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
   </bookViews>
   <sheets>
     <sheet name="weekly_scheduler" sheetId="3" r:id="rId1"/>
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ABFA33-2972-3549-91FF-9711D3E8AD02}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1187,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E55AEB-D2F4-EE41-86F8-038347F2C987}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/blog_config.xlsx
+++ b/blog_config.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanstruk/Documents/GitHub/good-news/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0971CC-5304-B742-8902-96FCDACFA1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BFDC23-89BE-2546-AB82-C4C893A6ADB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43040" yWindow="2580" windowWidth="28040" windowHeight="17440" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
+    <workbookView xWindow="83220" yWindow="3340" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
   </bookViews>
   <sheets>
     <sheet name="weekly_scheduler" sheetId="3" r:id="rId1"/>
     <sheet name="sources" sheetId="1" r:id="rId2"/>
-    <sheet name="blocked_domains" sheetId="2" r:id="rId3"/>
+    <sheet name="image_prompts" sheetId="4" r:id="rId3"/>
+    <sheet name="blocked_domains" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sources!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
   <si>
     <t>RSS</t>
   </si>
@@ -223,6 +237,69 @@
   </si>
   <si>
     <t>limit</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Exclusive</t>
+  </si>
+  <si>
+    <t>Opinion</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>A clean, abstract background suitable for any type of news post.
+Accent color: cool gray (#6C757D)
+Example:
+“A minimalist abstract background with smooth gradients of cool gray and subtle light texture, neutral and elegant, perfect for overlaying text.”</t>
+  </si>
+  <si>
+    <t>Broad, global feel — abstract globe shapes or horizon light.
+Accent color: crimson red (#C21807)
+Example:
+“A minimalist global background with faint outlines of continents and glowing crimson-red light, suggesting worldwide perspective.”</t>
+  </si>
+  <si>
+    <t>Professional, modern, structured — geometric hints, calm tones.
+Accent color: navy blue (#002B5B)
+Example:
+“A modern business background with geometric patterns and soft navy blue tones, clean and corporate.”</t>
+  </si>
+  <si>
+    <t>Thoughtful, reflective tone — suggest clarity and depth.
+Accent color: teal (#009688)
+Example:
+“A minimalist reflective background with soft teal gradients and subtle texture, evoking thought and debate.”</t>
+  </si>
+  <si>
+    <t>Sleek, high-end editorial vibe — think premium magazine.
+Accent color: royal purple (#7F00FF)
+Example:
+“A luxurious editorial-style background with soft spotlight gradients in royal purple, elegant and minimal.”</t>
+  </si>
+  <si>
+    <t>Warm, artistic atmosphere — textures of art, film, or music without specific subjects.
+Accent color: deep amber (#FFB300)
+Example:
+“A warm artistic background inspired by cultural creativity, soft brush textures, deep amber and gold light.”</t>
+  </si>
+  <si>
+    <t>Dynamic and energetic but not busy — evokes motion or stadium light.
+Accent color: vibrant green (#3CB043)
+Example:
+“A minimalist sports-themed background with glowing green light streaks suggesting motion, abstract textures resembling turf or energy waves.”</t>
+  </si>
+  <si>
+    <t>A minimalist, futuristic background evoking digital networks and cryptography.
+Accent color: electric blue (#007BFF)
+Example:
+“A minimalist futuristic digital network background with glowing nodes and soft electric blue light, subtle grid patterns, perfect for blockchain news backdrop.”</t>
+  </si>
+  <si>
+    <t>desc_image_prompt</t>
   </si>
 </sst>
 </file>
@@ -733,7 +810,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -741,6 +818,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1119,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ABFA33-2972-3549-91FF-9711D3E8AD02}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1303,9 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E55AEB-D2F4-EE41-86F8-038347F2C987}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1714,6 +1792,97 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9E73C8-94B7-3549-A2A7-1699D804B080}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="106.6640625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A4B157-2370-6347-AE30-C440E2E17D8E}">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/blog_config.xlsx
+++ b/blog_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanstruk/Documents/GitHub/good-news/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BFDC23-89BE-2546-AB82-C4C893A6ADB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15CEA51-FBE1-C541-B4B5-2662DD9C14FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="83220" yWindow="3340" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
+    <workbookView xWindow="16020" yWindow="3340" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
   </bookViews>
   <sheets>
     <sheet name="weekly_scheduler" sheetId="3" r:id="rId1"/>
@@ -817,10 +817,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1211,15 +1211,15 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -1801,79 +1801,79 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="106.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="106.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>70</v>
       </c>
     </row>

--- a/blog_config.xlsx
+++ b/blog_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanstruk/Documents/GitHub/good-news/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15CEA51-FBE1-C541-B4B5-2662DD9C14FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBA340A-6C5C-8E4A-A524-21A29829B7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="3340" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
+    <workbookView xWindow="6520" yWindow="3340" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
   </bookViews>
   <sheets>
     <sheet name="weekly_scheduler" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>RSS</t>
   </si>
@@ -251,55 +251,23 @@
     <t>General</t>
   </si>
   <si>
-    <t>A clean, abstract background suitable for any type of news post.
-Accent color: cool gray (#6C757D)
-Example:
-“A minimalist abstract background with smooth gradients of cool gray and subtle light texture, neutral and elegant, perfect for overlaying text.”</t>
-  </si>
-  <si>
-    <t>Broad, global feel — abstract globe shapes or horizon light.
-Accent color: crimson red (#C21807)
-Example:
-“A minimalist global background with faint outlines of continents and glowing crimson-red light, suggesting worldwide perspective.”</t>
-  </si>
-  <si>
-    <t>Professional, modern, structured — geometric hints, calm tones.
-Accent color: navy blue (#002B5B)
-Example:
-“A modern business background with geometric patterns and soft navy blue tones, clean and corporate.”</t>
-  </si>
-  <si>
-    <t>Thoughtful, reflective tone — suggest clarity and depth.
-Accent color: teal (#009688)
-Example:
-“A minimalist reflective background with soft teal gradients and subtle texture, evoking thought and debate.”</t>
-  </si>
-  <si>
-    <t>Sleek, high-end editorial vibe — think premium magazine.
-Accent color: royal purple (#7F00FF)
-Example:
-“A luxurious editorial-style background with soft spotlight gradients in royal purple, elegant and minimal.”</t>
-  </si>
-  <si>
-    <t>Warm, artistic atmosphere — textures of art, film, or music without specific subjects.
-Accent color: deep amber (#FFB300)
-Example:
-“A warm artistic background inspired by cultural creativity, soft brush textures, deep amber and gold light.”</t>
-  </si>
-  <si>
-    <t>Dynamic and energetic but not busy — evokes motion or stadium light.
-Accent color: vibrant green (#3CB043)
-Example:
-“A minimalist sports-themed background with glowing green light streaks suggesting motion, abstract textures resembling turf or energy waves.”</t>
-  </si>
-  <si>
-    <t>A minimalist, futuristic background evoking digital networks and cryptography.
-Accent color: electric blue (#007BFF)
-Example:
-“A minimalist futuristic digital network background with glowing nodes and soft electric blue light, subtle grid patterns, perfect for blockchain news backdrop.”</t>
-  </si>
-  <si>
     <t>desc_image_prompt</t>
+  </si>
+  <si>
+    <t>You are an art director creating descriptive prompts for DALL·E 3.
+Your task is to write a single, production-ready image prompt that transforms a short news article summary into a symbolic, hand-drawn sketch.
+Follow these creative guidelines:
+• The image should look like an **artist’s sketch** — loose, imperfect, expressive line work on textured paper.
+• Emphasize **hand-drawn pencil or ink strokes**, light shading, and visible texture.
+• Avoid digital gloss or rendering; do not use vector or 3D styles.
+• Keep the color palette muted and minimal. Use the provided accent color sparingly, as a small highlight or ink tone.
+• Depict ideas **conceptually and symbolically**, not literally.
+• No text, logos, faces, or copyrighted symbols.
+• The overall style should resemble a **newspaper editorial illustration** — subtle, elegant, and human in feel.
+Output format:
+1. One paragraph describing the scene in natural, directive language suitable for DALL·E 3.
+2. Optionally, a few short style tags (e.g. “hand-drawn sketch, pencil on paper, minimal color, conceptual illustration”).
+Output only the prompt text—no explanations or extra words.</t>
   </si>
 </sst>
 </file>
@@ -1795,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9E73C8-94B7-3549-A2A7-1699D804B080}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1810,58 +1778,58 @@
         <v>36</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1869,12 +1837,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/blog_config.xlsx
+++ b/blog_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanstruk/Documents/GitHub/good-news/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBA340A-6C5C-8E4A-A524-21A29829B7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB09469-AA8E-2D4C-837B-27F5166C4A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="3340" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
+    <workbookView xWindow="39820" yWindow="2480" windowWidth="28040" windowHeight="17440" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
   </bookViews>
   <sheets>
     <sheet name="weekly_scheduler" sheetId="3" r:id="rId1"/>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ABFA33-2972-3549-91FF-9711D3E8AD02}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>27</v>
@@ -1763,7 +1763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9E73C8-94B7-3549-A2A7-1699D804B080}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/blog_config.xlsx
+++ b/blog_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanstruk/Documents/GitHub/good-news/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB09469-AA8E-2D4C-837B-27F5166C4A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500DCC4C-F8D2-D94B-8A12-23607112896A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39820" yWindow="2480" windowWidth="28040" windowHeight="17440" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
+    <workbookView xWindow="75360" yWindow="2920" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
   </bookViews>
   <sheets>
     <sheet name="weekly_scheduler" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="74">
   <si>
     <t>RSS</t>
   </si>
@@ -56,69 +56,12 @@
     <t>Business, Markets, and Finance News</t>
   </si>
   <si>
-    <t>WSJ - World News</t>
-  </si>
-  <si>
-    <t>https://feeds.content.dowjones.io/public/rss/RSSWorldNews</t>
-  </si>
-  <si>
-    <t>WSJ - Markets</t>
-  </si>
-  <si>
-    <t>https://feeds.content.dowjones.io/public/rss/RSSMarketsMain</t>
-  </si>
-  <si>
-    <t>Cointelegraph - Ethereum</t>
-  </si>
-  <si>
-    <t>Blockchain</t>
-  </si>
-  <si>
-    <t>https://cointelegraph.com/rss/tag/ethereum</t>
-  </si>
-  <si>
-    <t>Blockchain and Decentralized Finance</t>
-  </si>
-  <si>
-    <t>Cointelegraph - Blockchain</t>
-  </si>
-  <si>
-    <t>https://cointelegraph.com/rss/tag/blockchain</t>
-  </si>
-  <si>
-    <t>Cointelegraph - Regulation</t>
-  </si>
-  <si>
-    <t>https://cointelegraph.com/rss/tag/regulation</t>
-  </si>
-  <si>
     <t>Telegram</t>
   </si>
   <si>
     <t>News</t>
   </si>
   <si>
-    <t>CNN</t>
-  </si>
-  <si>
-    <t>https://edition.cnn.com/business</t>
-  </si>
-  <si>
-    <t>BBC Business</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/business</t>
-  </si>
-  <si>
-    <t>BBC Innovation</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/innovation</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/business/technology-of-business</t>
-  </si>
-  <si>
     <t>Aljazeera</t>
   </si>
   <si>
@@ -134,12 +77,6 @@
     <t>https://t.me/INSIDERR_POLITIC</t>
   </si>
   <si>
-    <t>DeFi News</t>
-  </si>
-  <si>
-    <t>https://t.me/defi_cryptonews</t>
-  </si>
-  <si>
     <t>desc_channel</t>
   </si>
   <si>
@@ -213,9 +150,6 @@
   </si>
   <si>
     <t>Topic 9</t>
-  </si>
-  <si>
-    <t>Sports</t>
   </si>
   <si>
     <t>SERP</t>
@@ -269,12 +203,84 @@
 2. Optionally, a few short style tags (e.g. “hand-drawn sketch, pencil on paper, minimal color, conceptual illustration”).
 Output only the prompt text—no explanations or extra words.</t>
   </si>
+  <si>
+    <t>https://www.danas.rs/rubrika/vesti/beograd/</t>
+  </si>
+  <si>
+    <t>https://www.blic.rs/vesti/srbija</t>
+  </si>
+  <si>
+    <t>https://www.politika.rs/scc/beograd</t>
+  </si>
+  <si>
+    <t>https://www.danas.rs/rubrika/vesti/drustvo/</t>
+  </si>
+  <si>
+    <t>https://www.danas.rs</t>
+  </si>
+  <si>
+    <t>https://www.politika.rs/scc/najnovije-vesti</t>
+  </si>
+  <si>
+    <t>https://www.politika.rs/sr/rss</t>
+  </si>
+  <si>
+    <t>https://www.blic.rs/rss</t>
+  </si>
+  <si>
+    <t>https://www.danas.rs/feed/</t>
+  </si>
+  <si>
+    <t>https://t.me/NewsSerbia</t>
+  </si>
+  <si>
+    <t>https://www.danas.rs/rubrika/vesti/drustvo/vladavina-prava/</t>
+  </si>
+  <si>
+    <t>https://www.politika.rs</t>
+  </si>
+  <si>
+    <t>https://www.blic.rs/vesti/politika</t>
+  </si>
+  <si>
+    <t>Danas</t>
+  </si>
+  <si>
+    <t>Blic</t>
+  </si>
+  <si>
+    <t>Politika</t>
+  </si>
+  <si>
+    <t>@NewsSerbia</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t>Serbian News</t>
+  </si>
+  <si>
+    <t>https://www.danas.rs/rubrika/kultura/</t>
+  </si>
+  <si>
+    <t>https://www.politika.rs/scc/kultura</t>
+  </si>
+  <si>
+    <t>Local News</t>
+  </si>
+  <si>
+    <t>Social Life</t>
+  </si>
+  <si>
+    <t>Latest News</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -415,6 +421,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -734,7 +748,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -777,8 +791,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -787,11 +802,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -825,6 +841,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1167,108 +1184,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ABFA33-2972-3549-91FF-9711D3E8AD02}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1280,7 +1305,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1292,7 +1317,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1304,7 +1329,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1316,7 +1341,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1328,7 +1353,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1349,9 +1374,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E55AEB-D2F4-EE41-86F8-038347F2C987}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1365,51 +1392,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1417,25 +1444,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -1443,71 +1470,71 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -1516,82 +1543,82 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
         <v>3</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
+        <v>65</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
+        <v>63</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -1599,162 +1626,300 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
         <v>3</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{19E55AEB-D2F4-EE41-86F8-038347F2C987}"/>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1" xr:uid="{69A620BC-5252-744C-946E-27A36147D802}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{6C2E3475-42B9-484F-8350-08FCA126D229}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{C5053D82-6358-1841-9016-07FCAE8658F9}"/>
+    <hyperlink ref="E16" r:id="rId4" xr:uid="{E3904033-5A08-3149-A10C-B6AC08C5CBC0}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{5AE2A914-7B0D-3A41-B4D6-41FAFCEBD28B}"/>
+    <hyperlink ref="E20" r:id="rId6" xr:uid="{5272B04B-A420-B74A-9B01-67B6A65855EE}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1763,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9E73C8-94B7-3549-A2A7-1699D804B080}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1775,50 +1940,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="356" x14ac:dyDescent="0.2">
@@ -1826,23 +1991,23 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1862,17 +2027,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/blog_config.xlsx
+++ b/blog_config.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanstruk/Documents/GitHub/good-news/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500DCC4C-F8D2-D94B-8A12-23607112896A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490C8B3E-AEA7-5743-8E42-69F8E18125A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75360" yWindow="2920" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
+    <workbookView xWindow="42400" yWindow="2660" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
   </bookViews>
   <sheets>
     <sheet name="weekly_scheduler" sheetId="3" r:id="rId1"/>
     <sheet name="sources" sheetId="1" r:id="rId2"/>
     <sheet name="image_prompts" sheetId="4" r:id="rId3"/>
     <sheet name="blocked_domains" sheetId="2" r:id="rId4"/>
+    <sheet name="lang_config" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sources!$A$1:$G$1</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
   <si>
     <t>RSS</t>
   </si>
@@ -274,6 +275,54 @@
   </si>
   <si>
     <t>Latest News</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Chinese (simplified)</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>zh</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>fr</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E55AEB-D2F4-EE41-86F8-038347F2C987}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2043,4 +2092,117 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EB545A-A6FB-6D44-9886-FE4E01916CDF}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>